--- a/output/1Y_P3_1VAL-D.xlsx
+++ b/output/1Y_P3_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>8.533200000000001</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1171.8933</v>
       </c>
-      <c r="G2" s="1">
-        <v>1171.8933</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.0851</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>8.533200000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0851</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>9.073499999999999</v>
       </c>
+      <c r="E3" s="1">
+        <v>1171.8933</v>
+      </c>
       <c r="F3" s="1">
         <v>1102.1105</v>
       </c>
-      <c r="G3" s="1">
-        <v>2274.0039</v>
-      </c>
       <c r="H3" s="1">
-        <v>20526.0684</v>
+        <v>10577.9778</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.7951</v>
+        <v>10577.9778</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.533200000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20526.0684</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.029</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>9.379</v>
       </c>
+      <c r="E4" s="1">
+        <v>2274.0039</v>
+      </c>
       <c r="F4" s="1">
         <v>1066.2117</v>
       </c>
-      <c r="G4" s="1">
-        <v>3340.2156</v>
-      </c>
       <c r="H4" s="1">
-        <v>31165.2136</v>
+        <v>21217.1381</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>8.9815</v>
+        <v>21217.1381</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.7951</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31165.2136</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0209</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>9.661099999999999</v>
       </c>
+      <c r="E5" s="1">
+        <v>3340.2156</v>
+      </c>
       <c r="F5" s="1">
         <v>1035.0788</v>
       </c>
-      <c r="G5" s="1">
-        <v>4375.2944</v>
-      </c>
       <c r="H5" s="1">
-        <v>42050.5172</v>
+        <v>32102.4781</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.142200000000001</v>
+        <v>32102.4781</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.9815</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42050.5172</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0215</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>10.7352</v>
       </c>
+      <c r="E6" s="1">
+        <v>4375.2944</v>
+      </c>
       <c r="F6" s="1">
         <v>931.515</v>
       </c>
-      <c r="G6" s="1">
-        <v>5306.8094</v>
-      </c>
       <c r="H6" s="1">
-        <v>56674.0714</v>
+        <v>46725.9568</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>9.421900000000001</v>
+        <v>46725.9568</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9.142200000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56674.0714</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0888</v>
+        <v>0.1098</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E7" s="1">
+        <v>5306.8094</v>
+      </c>
       <c r="F7" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G7" s="1">
-        <v>6279.733</v>
-      </c>
       <c r="H7" s="1">
-        <v>64210.2697</v>
+        <v>54262.1265</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>9.554500000000001</v>
+        <v>54262.1265</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.421900000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64210.2697</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.037</v>
+        <v>-0.0434</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E8" s="1">
+        <v>6279.733</v>
+      </c>
       <c r="F8" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G8" s="1">
-        <v>7299.3608</v>
-      </c>
       <c r="H8" s="1">
-        <v>71216.9437</v>
+        <v>61268.8428</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>9.5899</v>
+        <v>61268.8428</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.554500000000001</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>2825.8798</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-7174.1202</v>
+        <v>2388.0642</v>
       </c>
       <c r="O8" s="1">
-        <v>2825.8798</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74042.8236</v>
+        <v>-7611.9358</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0023</v>
+        <v>-0.0466</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E9" s="1">
+        <v>7299.3608</v>
+      </c>
       <c r="F9" s="1">
-        <v>1011.4184</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8310.7793</v>
+        <v>1003.0359</v>
       </c>
       <c r="H9" s="1">
-        <v>86363.1249</v>
+        <v>75852.7678</v>
       </c>
       <c r="I9" s="1">
-        <v>80565.17600000001</v>
+        <v>2388.0642</v>
       </c>
       <c r="J9" s="1">
-        <v>9.694100000000001</v>
+        <v>78240.83199999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70477.6128</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.6553</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10565.176</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2260.7039</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>88623.8287</v>
+        <v>-10477.6128</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0545</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E10" s="1">
+        <v>8302.396699999999</v>
+      </c>
       <c r="F10" s="1">
-        <v>1089.3282</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9400.107400000001</v>
+        <v>1080.2999</v>
       </c>
       <c r="H10" s="1">
-        <v>90695.99649999999</v>
+        <v>80104.8446</v>
       </c>
       <c r="I10" s="1">
-        <v>91130.35189999999</v>
+        <v>1910.4514</v>
       </c>
       <c r="J10" s="1">
-        <v>9.694599999999999</v>
+        <v>82015.296</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80955.2257</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.7508</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10565.176</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1695.5279</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92391.52439999999</v>
+        <v>-10477.6128</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06320000000000001</v>
+        <v>-0.0706</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E11" s="1">
+        <v>9382.696599999999</v>
+      </c>
       <c r="F11" s="1">
-        <v>1049.6112</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10449.7186</v>
+        <v>1040.9121</v>
       </c>
       <c r="H11" s="1">
-        <v>104638.257</v>
+        <v>93953.6329</v>
       </c>
       <c r="I11" s="1">
-        <v>101695.5279</v>
+        <v>1432.8385</v>
       </c>
       <c r="J11" s="1">
-        <v>9.7319</v>
+        <v>95386.47139999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91432.8385</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.7448</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10565.176</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1130.3519</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105768.6089</v>
+        <v>-10477.6128</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.033</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E12" s="1">
+        <v>10423.6087</v>
+      </c>
       <c r="F12" s="1">
-        <v>936.2307</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11385.9493</v>
+        <v>928.4713</v>
       </c>
       <c r="H12" s="1">
-        <v>127822.0821</v>
+        <v>117018.5587</v>
       </c>
       <c r="I12" s="1">
-        <v>112260.7039</v>
+        <v>955.2257</v>
       </c>
       <c r="J12" s="1">
-        <v>9.8596</v>
+        <v>117973.7844</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101910.4514</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.776899999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10565.176</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>565.176</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>128387.2581</v>
+        <v>-10477.6128</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.109</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E13" s="1">
+        <v>11352.08</v>
+      </c>
       <c r="F13" s="1">
-        <v>948.9026</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12334.8518</v>
+        <v>941.0381</v>
       </c>
       <c r="H13" s="1">
-        <v>136625.7526</v>
+        <v>125740.1792</v>
       </c>
       <c r="I13" s="1">
-        <v>122825.8798</v>
+        <v>477.6128</v>
       </c>
       <c r="J13" s="1">
-        <v>9.957599999999999</v>
+        <v>126217.792</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112388.0642</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.9002</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10565.176</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>136625.7526</v>
+        <v>-10477.6128</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0127</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E14" s="1">
+        <v>12293.1182</v>
+      </c>
       <c r="F14" s="1">
-        <v>-12334.8518</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-11352.08</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>133377.8735</v>
       </c>
       <c r="I14" s="1">
-        <v>122825.8798</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>9.957599999999999</v>
+        <v>133377.8735</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112388.0642</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.1424</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>133830.6752</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>133830.6752</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133830.6752</v>
+        <v>123167.7978</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0873</v>
+        <v>-0.0208</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1171.8933</v>
       </c>
       <c r="G2" s="1">
-        <v>1171.8933</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0851</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>8.533200000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0851</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1171.8933</v>
       </c>
       <c r="F3" s="1">
         <v>1043.8295</v>
       </c>
       <c r="G3" s="1">
-        <v>2215.7228</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10577.9778</v>
       </c>
       <c r="I3" s="1">
-        <v>19471.1866</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.787699999999999</v>
+        <v>10577.9778</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9471.186600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.082000000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9471.186600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>528.8134</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20528.8134</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0291</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>9.379</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>2215.7228</v>
       </c>
       <c r="F4" s="1">
         <v>999.6079</v>
       </c>
       <c r="G4" s="1">
-        <v>3215.3307</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20673.3581</v>
       </c>
       <c r="I4" s="1">
-        <v>28846.5093</v>
+        <v>528.8134</v>
       </c>
       <c r="J4" s="1">
-        <v>8.9716</v>
+        <v>21202.1716</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18846.5093</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.505800000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9375.3228</v>
       </c>
-      <c r="O4" s="1">
-        <v>1153.4907</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31153.4907</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>3215.3307</v>
       </c>
       <c r="F5" s="1">
         <v>946.6104</v>
       </c>
       <c r="G5" s="1">
-        <v>4161.9411</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30902.2218</v>
       </c>
       <c r="I5" s="1">
-        <v>37991.8074</v>
+        <v>1153.4907</v>
       </c>
       <c r="J5" s="1">
-        <v>9.128399999999999</v>
+        <v>32055.7125</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27991.8074</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.7057</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9145.2981</v>
       </c>
-      <c r="O5" s="1">
-        <v>2008.1926</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42008.1926</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0208</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>10.7352</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>4161.9411</v>
       </c>
       <c r="F6" s="1">
         <v>519.926</v>
       </c>
       <c r="G6" s="1">
-        <v>4681.8671</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>44447.4503</v>
       </c>
       <c r="I6" s="1">
-        <v>43573.317</v>
+        <v>2008.1926</v>
       </c>
       <c r="J6" s="1">
-        <v>9.306800000000001</v>
+        <v>46455.6429</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>33573.317</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.066700000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-5581.5096</v>
       </c>
-      <c r="O6" s="1">
-        <v>6426.683</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56426.683</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.08500000000000001</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>10.2783</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>4681.8671</v>
       </c>
       <c r="F7" s="1">
         <v>1186.1035</v>
       </c>
       <c r="G7" s="1">
-        <v>5867.9707</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>47872.0914</v>
       </c>
       <c r="I7" s="1">
-        <v>55764.4449</v>
+        <v>6426.683</v>
       </c>
       <c r="J7" s="1">
-        <v>9.5032</v>
+        <v>54298.7744</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45764.4449</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.774800000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12191.1279</v>
       </c>
-      <c r="O7" s="1">
-        <v>4235.5551</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64235.5551</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.033</v>
+        <v>-0.0382</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>5867.9707</v>
       </c>
       <c r="F8" s="1">
         <v>1306.6598</v>
       </c>
       <c r="G8" s="1">
-        <v>7174.6305</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>57251.4425</v>
       </c>
       <c r="I8" s="1">
-        <v>68579.5114</v>
+        <v>4235.5551</v>
       </c>
       <c r="J8" s="1">
-        <v>9.5586</v>
+        <v>61486.9976</v>
       </c>
       <c r="K8" s="1">
+        <v>58579.5114</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.982900000000001</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>2640.5868</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-10174.4796</v>
+        <v>2106.8402</v>
       </c>
       <c r="O8" s="1">
-        <v>4061.0754</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74061.0754</v>
+        <v>-10708.2262</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0024</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>10.4459</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>7174.6305</v>
       </c>
       <c r="F9" s="1">
         <v>523.8211</v>
       </c>
       <c r="G9" s="1">
-        <v>7698.4516</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74556.6078</v>
       </c>
       <c r="I9" s="1">
-        <v>74051.29459999999</v>
+        <v>3527.3289</v>
       </c>
       <c r="J9" s="1">
-        <v>9.619</v>
+        <v>78083.93670000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64051.2946</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>8.9275</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5471.7833</v>
       </c>
-      <c r="O9" s="1">
-        <v>8589.2922</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88589.2922</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0539</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>9.6988</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>7698.4516</v>
       </c>
       <c r="F10" s="1">
         <v>1629.5198</v>
       </c>
       <c r="G10" s="1">
-        <v>9327.9715</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>74277.7409</v>
       </c>
       <c r="I10" s="1">
-        <v>89855.68150000001</v>
+        <v>8055.5456</v>
       </c>
       <c r="J10" s="1">
-        <v>9.632899999999999</v>
+        <v>82333.2865</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79855.68150000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.373</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-15804.3869</v>
       </c>
-      <c r="O10" s="1">
-        <v>2784.9053</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92784.9053</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0589</v>
+        <v>-0.0653</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>10.0658</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>9327.9715</v>
       </c>
       <c r="F11" s="1">
         <v>658.5467</v>
       </c>
       <c r="G11" s="1">
-        <v>9986.5182</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93405.6424</v>
       </c>
       <c r="I11" s="1">
-        <v>96484.4811</v>
+        <v>2251.1587</v>
       </c>
       <c r="J11" s="1">
-        <v>9.6615</v>
+        <v>95656.8011</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86484.4811</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.2715</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6628.7996</v>
       </c>
-      <c r="O11" s="1">
-        <v>6156.1057</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106156.1057</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0328</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>11.2848</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>9986.5182</v>
       </c>
       <c r="F12" s="1">
         <v>-188.0984</v>
       </c>
       <c r="G12" s="1">
-        <v>9798.4198</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>112111.6493</v>
       </c>
       <c r="I12" s="1">
-        <v>94361.8281</v>
+        <v>5622.3591</v>
       </c>
       <c r="J12" s="1">
-        <v>9.6303</v>
+        <v>117734.0083</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>84361.8281</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>8.4476</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>2111.6493</v>
       </c>
-      <c r="O12" s="1">
-        <v>18267.7549</v>
-      </c>
-      <c r="P12" s="1">
-        <v>128267.7549</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.1043</v>
+        <v>0.1143</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>11.1341</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>9798.4198</v>
       </c>
       <c r="F13" s="1">
         <v>1035.4251</v>
       </c>
       <c r="G13" s="1">
-        <v>10833.8449</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>108531.2169</v>
       </c>
       <c r="I13" s="1">
-        <v>105890.3553</v>
+        <v>17734.0083</v>
       </c>
       <c r="J13" s="1">
-        <v>9.773999999999999</v>
+        <v>126265.2252</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>95890.3553</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.786300000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11528.5272</v>
       </c>
-      <c r="O13" s="1">
-        <v>16739.2278</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136739.2278</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0111</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>10.9064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10833.8449</v>
       </c>
       <c r="F14" s="1">
         <v>-10833.8449</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117545.0507</v>
       </c>
       <c r="I14" s="1">
-        <v>105890.3553</v>
+        <v>16205.4812</v>
       </c>
       <c r="J14" s="1">
-        <v>9.773999999999999</v>
+        <v>133750.5319</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>95890.3553</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.851000000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>117545.0507</v>
       </c>
-      <c r="O14" s="1">
-        <v>134284.2785</v>
-      </c>
-      <c r="P14" s="1">
-        <v>134284.2785</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0849</v>
+        <v>-0.0185</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1171.8933</v>
       </c>
       <c r="G2" s="1">
-        <v>1171.8933</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0851</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>8.533200000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0851</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1171.8933</v>
       </c>
       <c r="F3" s="1">
         <v>1049.3688</v>
       </c>
       <c r="G3" s="1">
-        <v>2221.2621</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10577.9778</v>
       </c>
       <c r="I3" s="1">
-        <v>19521.4475</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.788399999999999</v>
+        <v>10577.9778</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9521.4475</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.1248</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9521.4475</v>
       </c>
-      <c r="O3" s="1">
-        <v>478.5525</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20528.5525</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0291</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>9.379</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>2221.2621</v>
       </c>
       <c r="F4" s="1">
         <v>1010.1721</v>
       </c>
       <c r="G4" s="1">
-        <v>3231.4341</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20725.0415</v>
       </c>
       <c r="I4" s="1">
-        <v>28995.8513</v>
+        <v>478.5525</v>
       </c>
       <c r="J4" s="1">
-        <v>8.973100000000001</v>
+        <v>21203.5941</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18995.8513</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.5518</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9474.4038</v>
       </c>
-      <c r="O4" s="1">
-        <v>1004.1487</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31154.3987</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>3231.4341</v>
       </c>
       <c r="F5" s="1">
         <v>961.8257</v>
       </c>
       <c r="G5" s="1">
-        <v>4193.2599</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31056.9904</v>
       </c>
       <c r="I5" s="1">
-        <v>38288.1458</v>
+        <v>1004.1487</v>
       </c>
       <c r="J5" s="1">
-        <v>9.1309</v>
+        <v>32061.1391</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28288.1458</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.754099999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9292.2945</v>
       </c>
-      <c r="O5" s="1">
-        <v>1711.8542</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42012.8554</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0209</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>10.7352</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>4193.2599</v>
       </c>
       <c r="F6" s="1">
         <v>535.6606</v>
       </c>
       <c r="G6" s="1">
-        <v>4728.9205</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>44781.9187</v>
       </c>
       <c r="I6" s="1">
-        <v>44038.5696</v>
+        <v>1711.8542</v>
       </c>
       <c r="J6" s="1">
-        <v>9.3126</v>
+        <v>46493.7729</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34038.5696</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.1174</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-5750.4238</v>
       </c>
-      <c r="O6" s="1">
-        <v>5961.4304</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56463.9366</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0856</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>10.2783</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4728.9205</v>
       </c>
       <c r="F7" s="1">
         <v>1212.8906</v>
       </c>
       <c r="G7" s="1">
-        <v>5941.8111</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>48353.2119</v>
       </c>
       <c r="I7" s="1">
-        <v>56505.0236</v>
+        <v>5961.4304</v>
       </c>
       <c r="J7" s="1">
-        <v>9.5097</v>
+        <v>54314.6423</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46505.0236</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.834199999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12466.454</v>
       </c>
-      <c r="O7" s="1">
-        <v>3494.9764</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64249.9952</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0333</v>
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>5941.8111</v>
       </c>
       <c r="F8" s="1">
         <v>1341.3402</v>
       </c>
       <c r="G8" s="1">
-        <v>7283.1513</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>57971.8745</v>
       </c>
       <c r="I8" s="1">
-        <v>69660.2172</v>
+        <v>3494.9764</v>
       </c>
       <c r="J8" s="1">
-        <v>9.5646</v>
+        <v>61466.8509</v>
       </c>
       <c r="K8" s="1">
+        <v>59660.2172</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10.0407</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>2673.815</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-10481.3786</v>
+        <v>2128.0142</v>
       </c>
       <c r="O8" s="1">
-        <v>3013.5978</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74072.39169999999</v>
+        <v>-11027.1794</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0024</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>10.4459</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>7283.1513</v>
       </c>
       <c r="F9" s="1">
         <v>551.3789</v>
       </c>
       <c r="G9" s="1">
-        <v>7834.5302</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>75684.3233</v>
       </c>
       <c r="I9" s="1">
-        <v>75419.8665</v>
+        <v>2467.797</v>
       </c>
       <c r="J9" s="1">
-        <v>9.6266</v>
+        <v>78152.1203</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65419.8665</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>8.9824</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5759.6493</v>
       </c>
-      <c r="O9" s="1">
-        <v>7253.9485</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88668.03630000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0547</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>9.6988</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>7834.5302</v>
       </c>
       <c r="F10" s="1">
         <v>1682.1936</v>
       </c>
       <c r="G10" s="1">
-        <v>9516.7238</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>75590.68150000001</v>
       </c>
       <c r="I10" s="1">
-        <v>91735.1259</v>
+        <v>6708.1477</v>
       </c>
       <c r="J10" s="1">
-        <v>9.6394</v>
+        <v>82298.82919999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81735.1259</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.4327</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-16315.2593</v>
       </c>
-      <c r="O10" s="1">
-        <v>938.6891000000001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92759.8474</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0599</v>
+        <v>-0.0664</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>10.0658</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>9516.7238</v>
       </c>
       <c r="F11" s="1">
         <v>697.5133</v>
       </c>
       <c r="G11" s="1">
-        <v>10214.2372</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95295.7142</v>
       </c>
       <c r="I11" s="1">
-        <v>98756.1557</v>
+        <v>392.8884</v>
       </c>
       <c r="J11" s="1">
-        <v>9.6685</v>
+        <v>95688.60249999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88756.1557</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.3263</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7021.0299</v>
       </c>
-      <c r="O11" s="1">
-        <v>3917.6593</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106197.9234</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0335</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>11.2848</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>10214.2372</v>
       </c>
       <c r="F12" s="1">
         <v>-167.1455</v>
       </c>
       <c r="G12" s="1">
-        <v>10047.0917</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>114668.0909</v>
       </c>
       <c r="I12" s="1">
-        <v>96869.9522</v>
+        <v>3371.8585</v>
       </c>
       <c r="J12" s="1">
-        <v>9.6416</v>
+        <v>118039.9494</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>86869.9522</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>8.504799999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>1876.4255</v>
       </c>
-      <c r="O12" s="1">
-        <v>15794.0848</v>
-      </c>
-      <c r="P12" s="1">
-        <v>128585.7502</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.1066</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>11.1341</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>10047.0917</v>
       </c>
       <c r="F13" s="1">
         <v>1089.7058</v>
       </c>
       <c r="G13" s="1">
-        <v>11136.7975</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>111285.6064</v>
       </c>
       <c r="I13" s="1">
-        <v>109002.8456</v>
+        <v>15248.284</v>
       </c>
       <c r="J13" s="1">
-        <v>9.787599999999999</v>
+        <v>126533.8904</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99002.8456</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.853899999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12132.8934</v>
       </c>
-      <c r="O13" s="1">
-        <v>13661.1914</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137016.8152</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0113</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>10.9064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11136.7975</v>
       </c>
       <c r="F14" s="1">
         <v>-11136.7975</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120832.0254</v>
       </c>
       <c r="I14" s="1">
-        <v>109002.8456</v>
+        <v>13115.3906</v>
       </c>
       <c r="J14" s="1">
-        <v>9.787599999999999</v>
+        <v>133947.4161</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99002.8456</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.889699999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120832.0254</v>
       </c>
-      <c r="O14" s="1">
-        <v>134493.2168</v>
-      </c>
-      <c r="P14" s="1">
-        <v>134493.2168</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0852</v>
+        <v>-0.0189</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1171.8933</v>
       </c>
       <c r="G2" s="1">
-        <v>1171.8933</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0851</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>8.533200000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0851</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1171.8933</v>
       </c>
       <c r="F3" s="1">
         <v>1054.9081</v>
       </c>
       <c r="G3" s="1">
-        <v>2226.8014</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10577.9778</v>
       </c>
       <c r="I3" s="1">
-        <v>19571.7084</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.789199999999999</v>
+        <v>10577.9778</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9571.7084</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.1677</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9571.7084</v>
       </c>
-      <c r="O3" s="1">
-        <v>428.2916</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20528.2916</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0291</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>9.379</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>2226.8014</v>
       </c>
       <c r="F4" s="1">
         <v>1020.7898</v>
       </c>
       <c r="G4" s="1">
-        <v>3247.5912</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20776.7249</v>
       </c>
       <c r="I4" s="1">
-        <v>29145.6959</v>
+        <v>428.2916</v>
       </c>
       <c r="J4" s="1">
-        <v>8.974600000000001</v>
+        <v>21205.0166</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19145.6959</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.597799999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9573.987499999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>854.3040999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31155.3041</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>3247.5912</v>
       </c>
       <c r="F5" s="1">
         <v>977.1963</v>
       </c>
       <c r="G5" s="1">
-        <v>4224.7875</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31212.2741</v>
       </c>
       <c r="I5" s="1">
-        <v>38586.4871</v>
+        <v>854.3040999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>9.1334</v>
+        <v>32066.5782</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28586.4871</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.8024</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9440.7912</v>
       </c>
-      <c r="O5" s="1">
-        <v>1413.5129</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42017.5229</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.021</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>10.7352</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>4224.7875</v>
       </c>
       <c r="F6" s="1">
         <v>551.6581</v>
       </c>
       <c r="G6" s="1">
-        <v>4776.4455</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>45118.6179</v>
       </c>
       <c r="I6" s="1">
-        <v>44508.6466</v>
+        <v>1413.5129</v>
       </c>
       <c r="J6" s="1">
-        <v>9.3184</v>
+        <v>46532.1308</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34508.6466</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.168100000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-5922.1596</v>
       </c>
-      <c r="O6" s="1">
-        <v>5491.3534</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56501.4035</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0862</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>10.2783</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4776.4455</v>
       </c>
       <c r="F7" s="1">
         <v>1240.1951</v>
       </c>
       <c r="G7" s="1">
-        <v>6016.6406</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>48839.1556</v>
       </c>
       <c r="I7" s="1">
-        <v>57255.744</v>
+        <v>5491.3534</v>
       </c>
       <c r="J7" s="1">
-        <v>9.5162</v>
+        <v>54330.509</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47255.744</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.8935</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12747.0974</v>
       </c>
-      <c r="O7" s="1">
-        <v>2744.256</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64264.4066</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0336</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>6016.6406</v>
       </c>
       <c r="F8" s="1">
         <v>1299.4398</v>
       </c>
       <c r="G8" s="1">
-        <v>7316.0805</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>71380.07060000001</v>
+        <v>58701.9561</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>2744.256</v>
       </c>
       <c r="J8" s="1">
-        <v>9.568</v>
+        <v>61446.2121</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.972300000000001</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>2707.4883</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-10036.7677</v>
+        <v>2149.4005</v>
       </c>
       <c r="O8" s="1">
-        <v>2707.4883</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74087.5589</v>
+        <v>-10594.8555</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0024</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>10.4459</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>7316.0805</v>
       </c>
       <c r="F9" s="1">
         <v>657.2738000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>7973.3543</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>76026.51330000001</v>
       </c>
       <c r="I9" s="1">
-        <v>76865.81660000001</v>
+        <v>2149.4005</v>
       </c>
       <c r="J9" s="1">
-        <v>9.6403</v>
+        <v>78175.91379999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66865.81660000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.1396</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6865.8166</v>
       </c>
-      <c r="O9" s="1">
-        <v>5841.6717</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88698.3774</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0548</v>
+        <v>0.09420000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>9.6988</v>
       </c>
       <c r="E10" s="1">
+        <v>7973.3543</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1575.8222</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>1633.3641</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9606.7184</v>
-      </c>
       <c r="H10" s="1">
-        <v>92689.4616</v>
+        <v>76930.11139999999</v>
       </c>
       <c r="I10" s="1">
-        <v>92707.4883</v>
+        <v>5283.5839</v>
       </c>
       <c r="J10" s="1">
-        <v>9.6503</v>
+        <v>82213.69530000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82149.4005</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.303</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-15841.6717</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92689.4616</v>
+        <v>-15283.5839</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0609</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>10.0658</v>
       </c>
       <c r="E11" s="1">
+        <v>9549.1764</v>
+      </c>
+      <c r="F11" s="1">
+        <v>898.9312</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>841.3892</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10448.1076</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>95620.67819999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101176.7439</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>9.6837</v>
+        <v>95620.67819999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91197.8618</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.5503</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-8469.2556</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1530.7444</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106152.8698</v>
+        <v>-9048.461300000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0337</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>11.2848</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>10448.1076</v>
       </c>
       <c r="F12" s="1">
         <v>-144.7711</v>
       </c>
       <c r="G12" s="1">
-        <v>10303.3365</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>117293.5903</v>
       </c>
       <c r="I12" s="1">
-        <v>99543.0312</v>
+        <v>951.5386999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>9.661199999999999</v>
+        <v>118245.129</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89564.1491</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>8.5723</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>1625.2436</v>
       </c>
-      <c r="O12" s="1">
-        <v>13155.988</v>
-      </c>
-      <c r="P12" s="1">
-        <v>128824.3347</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.1091</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>11.1341</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>10303.3365</v>
       </c>
       <c r="F13" s="1">
         <v>1146.6861</v>
       </c>
       <c r="G13" s="1">
-        <v>11450.0226</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>114123.8765</v>
       </c>
       <c r="I13" s="1">
-        <v>112310.3486</v>
+        <v>12576.7823</v>
       </c>
       <c r="J13" s="1">
-        <v>9.8087</v>
+        <v>126700.6589</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102331.4664</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.931900000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12767.3174</v>
       </c>
-      <c r="O13" s="1">
-        <v>10388.6706</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137213.7008</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0116</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>10.9064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11450.0226</v>
       </c>
       <c r="F14" s="1">
         <v>-11450.0226</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124230.455</v>
       </c>
       <c r="I14" s="1">
-        <v>112310.3486</v>
+        <v>9809.464900000001</v>
       </c>
       <c r="J14" s="1">
-        <v>9.8087</v>
+        <v>134039.9199</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102331.4664</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>8.937200000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124230.455</v>
       </c>
-      <c r="O14" s="1">
-        <v>134619.1256</v>
-      </c>
-      <c r="P14" s="1">
-        <v>134619.1256</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0856</v>
+        <v>-0.0195</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>8.533200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1171.8933</v>
       </c>
       <c r="G2" s="1">
-        <v>1171.8933</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0851</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>8.533200000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0851</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>9.073499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1171.8933</v>
       </c>
       <c r="F3" s="1">
         <v>1060.4474</v>
       </c>
       <c r="G3" s="1">
-        <v>2232.3407</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10577.9778</v>
       </c>
       <c r="I3" s="1">
-        <v>19621.9693</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8.789899999999999</v>
+        <v>10577.9778</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9621.969300000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.210599999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9621.969300000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>378.0307</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20528.0307</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0291</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>9.379</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>2232.3407</v>
       </c>
       <c r="F4" s="1">
         <v>1031.4611</v>
       </c>
       <c r="G4" s="1">
-        <v>3263.8018</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20828.4083</v>
       </c>
       <c r="I4" s="1">
-        <v>29296.0431</v>
+        <v>378.0307</v>
       </c>
       <c r="J4" s="1">
-        <v>8.976000000000001</v>
+        <v>21206.439</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19296.0431</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.6439</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9674.0738</v>
       </c>
-      <c r="O4" s="1">
-        <v>703.9569</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31156.2069</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0206</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>3263.8018</v>
       </c>
       <c r="F5" s="1">
         <v>992.7229</v>
       </c>
       <c r="G5" s="1">
-        <v>4256.5248</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31368.0728</v>
       </c>
       <c r="I5" s="1">
-        <v>38886.8388</v>
+        <v>703.9569</v>
       </c>
       <c r="J5" s="1">
-        <v>9.1358</v>
+        <v>32072.0297</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28886.8388</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.8507</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9590.795700000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1113.1612</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42022.195</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.021</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>10.7352</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>4256.5248</v>
       </c>
       <c r="F6" s="1">
         <v>567.9211</v>
       </c>
       <c r="G6" s="1">
-        <v>4824.4458</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>45457.5561</v>
       </c>
       <c r="I6" s="1">
-        <v>44983.5851</v>
+        <v>1113.1612</v>
       </c>
       <c r="J6" s="1">
-        <v>9.3241</v>
+        <v>46570.7173</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34983.5851</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.2188</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6096.7464</v>
       </c>
-      <c r="O6" s="1">
-        <v>5016.4149</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56539.0841</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0868</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>10.2783</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>4824.4458</v>
       </c>
       <c r="F7" s="1">
         <v>1268.0245</v>
       </c>
       <c r="G7" s="1">
-        <v>6092.4703</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>49329.9586</v>
       </c>
       <c r="I7" s="1">
-        <v>58016.7215</v>
+        <v>5016.4149</v>
       </c>
       <c r="J7" s="1">
-        <v>9.5227</v>
+        <v>54346.3735</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48016.7215</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.9528</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-13033.1364</v>
       </c>
-      <c r="O7" s="1">
-        <v>1983.2785</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64278.7878</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.034</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>6092.4703</v>
       </c>
       <c r="F8" s="1">
         <v>1221.8484</v>
       </c>
       <c r="G8" s="1">
-        <v>7314.3188</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71362.8826</v>
+        <v>59441.7962</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1983.2785</v>
       </c>
       <c r="J8" s="1">
-        <v>9.5703</v>
+        <v>61425.0747</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.8482</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1">
-        <v>2741.6117</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-9241.666800000001</v>
+        <v>2171.0006</v>
       </c>
       <c r="O8" s="1">
-        <v>2741.6117</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74104.49430000001</v>
+        <v>-9812.277899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0023</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>10.4459</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>7314.3188</v>
       </c>
       <c r="F9" s="1">
         <v>800.6567</v>
       </c>
       <c r="G9" s="1">
-        <v>8114.9755</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>76008.2065</v>
       </c>
       <c r="I9" s="1">
-        <v>78363.5802</v>
+        <v>2171.0006</v>
       </c>
       <c r="J9" s="1">
-        <v>9.656700000000001</v>
+        <v>78179.2071</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68363.5802</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.346500000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8363.5802</v>
       </c>
-      <c r="O9" s="1">
-        <v>4378.0315</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88706.4225</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0547</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>9.6988</v>
       </c>
       <c r="E10" s="1">
+        <v>8114.9755</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1423.6215</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>1482.4547</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9597.430200000001</v>
-      </c>
       <c r="H10" s="1">
-        <v>92599.8455</v>
+        <v>78296.5298</v>
       </c>
       <c r="I10" s="1">
-        <v>92741.61169999999</v>
+        <v>3807.4204</v>
       </c>
       <c r="J10" s="1">
-        <v>9.6632</v>
+        <v>82103.95020000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82171.0006</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.1258</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-14378.0315</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92599.8455</v>
+        <v>-13807.4204</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0619</v>
+        <v>-0.0689</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>10.0658</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>9538.597</v>
       </c>
       <c r="F11" s="1">
         <v>993.463</v>
       </c>
       <c r="G11" s="1">
-        <v>10590.8932</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>106051.9091</v>
+        <v>95514.7414</v>
       </c>
       <c r="I11" s="1">
-        <v>102741.6117</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>9.700900000000001</v>
+        <v>95514.7414</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92171.0006</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.663</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106051.9091</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0336</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>11.2848</v>
       </c>
       <c r="E12" s="1">
+        <v>10532.0601</v>
+      </c>
+      <c r="F12" s="1">
+        <v>35.3241</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>-23.509</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10567.3842</v>
-      </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>118236.0658</v>
       </c>
       <c r="I12" s="1">
-        <v>102476.3169</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>9.6974</v>
+        <v>118236.0658</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92569.6263</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>8.789300000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>263.9195</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>10263.9195</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>128896.5444</v>
+        <v>-398.6256</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1107</v>
+        <v>0.1206</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>11.1341</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>10567.3842</v>
       </c>
       <c r="F13" s="1">
         <v>1206.4877</v>
       </c>
       <c r="G13" s="1">
-        <v>11773.8719</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>117048.574</v>
       </c>
       <c r="I13" s="1">
-        <v>115909.4715</v>
+        <v>9601.374400000001</v>
       </c>
       <c r="J13" s="1">
-        <v>9.8446</v>
+        <v>126649.9484</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106002.7809</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.0311</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13433.1546</v>
       </c>
-      <c r="O13" s="1">
-        <v>6830.7649</v>
-      </c>
-      <c r="P13" s="1">
-        <v>137242.8792</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>10.9064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11773.8719</v>
       </c>
       <c r="F14" s="1">
         <v>-11773.8719</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127744.1549</v>
       </c>
       <c r="I14" s="1">
-        <v>115909.4715</v>
+        <v>6168.2198</v>
       </c>
       <c r="J14" s="1">
-        <v>9.8446</v>
+        <v>133912.3747</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106002.7809</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.0032</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127744.1549</v>
       </c>
-      <c r="O14" s="1">
-        <v>134574.9198</v>
-      </c>
-      <c r="P14" s="1">
-        <v>134574.9198</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.08599999999999999</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4452,7 @@
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>10.877</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.957599999999999</v>
+        <v>9.1424</v>
       </c>
       <c r="D3" s="1">
-        <v>9.773999999999999</v>
+        <v>8.851000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>9.787599999999999</v>
+        <v>8.889699999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>9.8087</v>
+        <v>8.937200000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>9.8446</v>
+        <v>9.0032</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2686</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1543</v>
+        <v>0.2858</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1561</v>
+        <v>0.2855</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1587</v>
+        <v>0.2882</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1604</v>
+        <v>0.2898</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1604</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2058</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1916</v>
+        <v>0.2126</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1834</v>
+        <v>0.2004</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1857</v>
+        <v>0.2033</v>
       </c>
       <c r="F5" s="3">
-        <v>0.188</v>
+        <v>0.206</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1898</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2063</v>
       </c>
       <c r="C6" s="4">
-        <v>0.6993</v>
+        <v>1.2487</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7405</v>
+        <v>1.3236</v>
       </c>
       <c r="E6" s="4">
-        <v>0.745</v>
+        <v>1.3181</v>
       </c>
       <c r="F6" s="4">
-        <v>0.745</v>
+        <v>1.3079</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7383</v>
+        <v>1.2924</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2219</v>
+        <v>0.0496</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2498</v>
+        <v>0.2391</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2488</v>
+        <v>0.238</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2466</v>
+        <v>0.2357</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2422</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2825.8798</v>
+        <v>2388.0642</v>
       </c>
       <c r="D8" s="1">
-        <v>2640.5868</v>
+        <v>2106.8402</v>
       </c>
       <c r="E8" s="1">
-        <v>2673.815</v>
+        <v>2128.0142</v>
       </c>
       <c r="F8" s="1">
-        <v>2707.4883</v>
+        <v>2149.4005</v>
       </c>
       <c r="G8" s="1">
-        <v>2741.6117</v>
+        <v>2171.0006</v>
       </c>
     </row>
   </sheetData>
